--- a/CyclopeProjectTestCases.xlsx
+++ b/CyclopeProjectTestCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SukreetiSharma\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{342FDD3F-2A31-45BB-A381-BF57E0D2D87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77621843-91C2-47FA-8C84-B4F68BF4D8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{81B64A36-283D-4D1D-AAB9-B5285A96C309}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>Project Name:</t>
   </si>
@@ -92,15 +92,9 @@
     <t>TC_6</t>
   </si>
   <si>
-    <t>TC_7</t>
-  </si>
-  <si>
     <t>To Verify the login page that when  both Sign in &amp; password field is blank and Sign in button is clicked.</t>
   </si>
   <si>
-    <t>Should show an Error Message</t>
-  </si>
-  <si>
     <t>Verify user able to Sign in with Right Username &amp; Empty Password</t>
   </si>
   <si>
@@ -123,13 +117,118 @@
   </si>
   <si>
     <t>1. Open Application                                       2.Enter valid Username  .                                                    3.Enter invalid Password                                                                      4.Click sign in Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_7 </t>
+  </si>
+  <si>
+    <t>Dashboad</t>
+  </si>
+  <si>
+    <t>Verify that after login user ab to navigate to Dashboard page</t>
+  </si>
+  <si>
+    <t>TC_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify the functionality of Punch in and Punch out button </t>
+  </si>
+  <si>
+    <t>TC_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the functionality for break button </t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>Verify the functionality for Add task.</t>
+  </si>
+  <si>
+    <t>1. Open Application                                       2.Enter Username  .                                                    3. Enter Password .                                                                        4.Click sign in Button</t>
+  </si>
+  <si>
+    <t>1. Open Application                                       2.Enter Username  .                                                    3.  Enter Password.                                                                        4.Click sign in Button.                                        5.Navigate to dashboard page.</t>
+  </si>
+  <si>
+    <t>1. Open Application                                       2.Enter Username  .                                                    3.  Enter Password.                                                                        4.Click sign in Button.                                        5.Navigate to dashboard page.                  6. click on Punch in button .                                         7. Record Time .                                                       8. Then punch out.</t>
+  </si>
+  <si>
+    <t>1. Open Application                                       2.Enter Username  .                                                    3.  Enter Password.                                                                        4.Click sign in Button.                                        5.Navigate to dashboard page.                  6. click on Punch in button .                                         7. Record Time .                                                       8. Then take a break and verify.</t>
+  </si>
+  <si>
+    <t>1. Open Application                                       2.Enter Username  .                                                    3.  Enter Password.                                                                        4.Click sign in Button.                                        5.Navigate to dashboard page.                  6. Click on Add task and enter any task for the day .</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add multiple task a day.</t>
+  </si>
+  <si>
+    <t>1. Open Application                                       2.Enter Username  .                                                    3.  Enter Password.                                                                        4.Click sign in Button.                                        5.Navigate to dashboard page.                  6.Add task multple task for the day .</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>Verify that user ia able to edit task .</t>
+  </si>
+  <si>
+    <t>1. Open Application                                       2.Enter Username  .                                                    3.  Enter Password.                                                                        4.Click sign in Button.                                        5.Navigate to dashboard page.                  6. Click on Add task and enter any task.            7.then click on edit button.</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Verify that user is able to Book Meeting room .</t>
+  </si>
+  <si>
+    <t>1. Open Application                                       2.Enter Username  .                                                    3.  Enter Password.                                                                        4.Click sign in Button.                                        5.Navigate to dashboard page.                  6. Click on Book a meeting on meeting manager section</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Verify that user is able to see there task on Task page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Application                                       2.Enter Username  .                                                    3.  Enter Password.                                                                        4.Click sign in Button.                                        5.Navigate to Task page.                  </t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Verify that user is able to see ther Attendance on Attendance Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Application                                       2.Enter Username  .                                                    3.  Enter Password.                                                                        4.Click sign in Button.                                        5.Navigate to Attendance page.                  </t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>Verify that user ia able Logout.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Application                                       2.Enter Username  .                                                    3.  Enter Password.                                                                        4.Click sign in Button.                                        5.Navigate to Dashbaord page.                            6.Click on Logout.           </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +274,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3A3A3A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,7 +338,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -555,7 +647,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -563,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039FDE70-0CC9-4C0D-9362-069209C1CA9C}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,15 +718,13 @@
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -646,10 +736,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -660,10 +750,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -674,10 +764,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -688,10 +778,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -702,15 +792,150 @@
         <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
